--- a/Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF215B9D-5462-45EB-BEF4-0BC3450400A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RICOY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>RICOY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18302000</v>
+        <v>18652800</v>
       </c>
       <c r="E8" s="3">
-        <v>17996300</v>
+        <v>18341200</v>
       </c>
       <c r="F8" s="3">
-        <v>19594100</v>
+        <v>19969600</v>
       </c>
       <c r="G8" s="3">
-        <v>19083000</v>
+        <v>19448700</v>
       </c>
       <c r="H8" s="3">
-        <v>19475800</v>
+        <v>19849100</v>
       </c>
       <c r="I8" s="3">
-        <v>16728800</v>
+        <v>17049400</v>
       </c>
       <c r="J8" s="3">
-        <v>16883800</v>
+        <v>17207400</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11285800</v>
+        <v>11502100</v>
       </c>
       <c r="E9" s="3">
-        <v>11001200</v>
+        <v>11212000</v>
       </c>
       <c r="F9" s="3">
-        <v>11771100</v>
+        <v>11996700</v>
       </c>
       <c r="G9" s="3">
-        <v>11038600</v>
+        <v>11250200</v>
       </c>
       <c r="H9" s="3">
-        <v>11730300</v>
+        <v>11955100</v>
       </c>
       <c r="I9" s="3">
-        <v>20332500</v>
+        <v>20722200</v>
       </c>
       <c r="J9" s="3">
-        <v>10208100</v>
+        <v>10403700</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7016200</v>
+        <v>7150700</v>
       </c>
       <c r="E10" s="3">
-        <v>6995100</v>
+        <v>7129200</v>
       </c>
       <c r="F10" s="3">
-        <v>7823000</v>
+        <v>7973000</v>
       </c>
       <c r="G10" s="3">
-        <v>8044400</v>
+        <v>8198500</v>
       </c>
       <c r="H10" s="3">
-        <v>7745500</v>
+        <v>7894000</v>
       </c>
       <c r="I10" s="3">
-        <v>-3603800</v>
+        <v>-3672800</v>
       </c>
       <c r="J10" s="3">
-        <v>6675800</v>
+        <v>6803700</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,34 +835,34 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>833700</v>
+        <v>849700</v>
       </c>
       <c r="E12" s="3">
-        <v>890400</v>
+        <v>907500</v>
       </c>
       <c r="F12" s="3">
-        <v>905100</v>
+        <v>922500</v>
       </c>
       <c r="G12" s="3">
-        <v>871800</v>
+        <v>888500</v>
       </c>
       <c r="H12" s="3">
-        <v>837100</v>
+        <v>853100</v>
       </c>
       <c r="I12" s="3">
-        <v>1786700</v>
+        <v>1820900</v>
       </c>
       <c r="J12" s="3">
-        <v>1055800</v>
+        <v>1076000</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,12 +889,12 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>1823500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -867,48 +902,48 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+      <c r="G14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>102400</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>288300</v>
+        <v>293800</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>295000</v>
+        <v>362400</v>
       </c>
       <c r="E15" s="3">
-        <v>357300</v>
+        <v>364200</v>
       </c>
       <c r="F15" s="3">
-        <v>329400</v>
+        <v>335700</v>
       </c>
       <c r="G15" s="3">
-        <v>330900</v>
+        <v>337200</v>
       </c>
       <c r="H15" s="3">
-        <v>329200</v>
+        <v>335500</v>
       </c>
       <c r="I15" s="3">
-        <v>314000</v>
+        <v>320100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19328100</v>
+        <v>19698500</v>
       </c>
       <c r="E17" s="3">
-        <v>17695800</v>
+        <v>18035000</v>
       </c>
       <c r="F17" s="3">
-        <v>18686700</v>
+        <v>19044900</v>
       </c>
       <c r="G17" s="3">
-        <v>18056100</v>
+        <v>18402200</v>
       </c>
       <c r="H17" s="3">
-        <v>18408400</v>
+        <v>18761200</v>
       </c>
       <c r="I17" s="3">
-        <v>16076300</v>
+        <v>16384500</v>
       </c>
       <c r="J17" s="3">
-        <v>17088600</v>
+        <v>17416100</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1026000</v>
+        <v>-1045700</v>
       </c>
       <c r="E18" s="3">
-        <v>300500</v>
+        <v>306300</v>
       </c>
       <c r="F18" s="3">
-        <v>907400</v>
+        <v>924700</v>
       </c>
       <c r="G18" s="3">
-        <v>1026800</v>
+        <v>1046500</v>
       </c>
       <c r="H18" s="3">
-        <v>1067500</v>
+        <v>1087900</v>
       </c>
       <c r="I18" s="3">
-        <v>652400</v>
+        <v>664900</v>
       </c>
       <c r="J18" s="3">
-        <v>-204700</v>
+        <v>-208600</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15800</v>
+        <v>-16100</v>
       </c>
       <c r="E20" s="3">
-        <v>32200</v>
+        <v>32800</v>
       </c>
       <c r="F20" s="3">
         <v>-600</v>
       </c>
       <c r="G20" s="3">
-        <v>32300</v>
+        <v>32900</v>
       </c>
       <c r="H20" s="3">
-        <v>45900</v>
+        <v>46700</v>
       </c>
       <c r="I20" s="3">
-        <v>82300</v>
+        <v>83900</v>
       </c>
       <c r="J20" s="3">
-        <v>-16700</v>
+        <v>-17000</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-81000</v>
+        <v>-81400</v>
       </c>
       <c r="E21" s="3">
-        <v>1280800</v>
+        <v>1306400</v>
       </c>
       <c r="F21" s="3">
-        <v>1859100</v>
+        <v>1895800</v>
       </c>
       <c r="G21" s="3">
-        <v>2015700</v>
+        <v>2055400</v>
       </c>
       <c r="H21" s="3">
-        <v>2055600</v>
+        <v>2096000</v>
       </c>
       <c r="I21" s="3">
-        <v>1585500</v>
+        <v>1616900</v>
       </c>
       <c r="J21" s="3">
-        <v>587000</v>
+        <v>599200</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>59700</v>
+        <v>60800</v>
       </c>
       <c r="E22" s="3">
-        <v>67000</v>
+        <v>68300</v>
       </c>
       <c r="F22" s="3">
-        <v>58000</v>
+        <v>59100</v>
       </c>
       <c r="G22" s="3">
+        <v>64300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>67400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>133400</v>
+      </c>
+      <c r="J22" s="3">
         <v>63100</v>
       </c>
-      <c r="H22" s="3">
-        <v>66100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>130900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>61900</v>
-      </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1101500</v>
+        <v>-1122600</v>
       </c>
       <c r="E23" s="3">
-        <v>265700</v>
+        <v>270800</v>
       </c>
       <c r="F23" s="3">
-        <v>848700</v>
+        <v>865000</v>
       </c>
       <c r="G23" s="3">
-        <v>996100</v>
+        <v>1015200</v>
       </c>
       <c r="H23" s="3">
-        <v>1047200</v>
+        <v>1067300</v>
       </c>
       <c r="I23" s="3">
-        <v>603900</v>
+        <v>615500</v>
       </c>
       <c r="J23" s="3">
-        <v>-283300</v>
+        <v>-288700</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>48400</v>
+        <v>37500</v>
       </c>
       <c r="E24" s="3">
-        <v>182000</v>
+        <v>185500</v>
       </c>
       <c r="F24" s="3">
-        <v>251700</v>
+        <v>256500</v>
       </c>
       <c r="G24" s="3">
-        <v>342400</v>
+        <v>348900</v>
       </c>
       <c r="H24" s="3">
-        <v>351300</v>
+        <v>358100</v>
       </c>
       <c r="I24" s="3">
-        <v>215200</v>
+        <v>219300</v>
       </c>
       <c r="J24" s="3">
-        <v>72900</v>
+        <v>74300</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1149900</v>
+        <v>-1160100</v>
       </c>
       <c r="E26" s="3">
-        <v>83700</v>
+        <v>85300</v>
       </c>
       <c r="F26" s="3">
-        <v>597000</v>
+        <v>608400</v>
       </c>
       <c r="G26" s="3">
-        <v>653700</v>
+        <v>666200</v>
       </c>
       <c r="H26" s="3">
-        <v>695900</v>
+        <v>709200</v>
       </c>
       <c r="I26" s="3">
-        <v>388700</v>
+        <v>396100</v>
       </c>
       <c r="J26" s="3">
-        <v>-356200</v>
+        <v>-363000</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1200700</v>
+        <v>-1211900</v>
       </c>
       <c r="E27" s="3">
-        <v>30900</v>
+        <v>31500</v>
       </c>
       <c r="F27" s="3">
-        <v>558600</v>
+        <v>569300</v>
       </c>
       <c r="G27" s="3">
-        <v>608100</v>
+        <v>619800</v>
       </c>
       <c r="H27" s="3">
-        <v>645900</v>
+        <v>658300</v>
       </c>
       <c r="I27" s="3">
-        <v>302000</v>
+        <v>307800</v>
       </c>
       <c r="J27" s="3">
-        <v>-395200</v>
+        <v>-402800</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,34 +1263,34 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-11900</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="E32" s="3">
-        <v>-32200</v>
+        <v>-32800</v>
       </c>
       <c r="F32" s="3">
         <v>600</v>
       </c>
       <c r="G32" s="3">
-        <v>-32300</v>
+        <v>-32900</v>
       </c>
       <c r="H32" s="3">
-        <v>-45900</v>
+        <v>-46700</v>
       </c>
       <c r="I32" s="3">
-        <v>-82300</v>
+        <v>-83900</v>
       </c>
       <c r="J32" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1200700</v>
+        <v>-1223800</v>
       </c>
       <c r="E33" s="3">
-        <v>30900</v>
+        <v>31500</v>
       </c>
       <c r="F33" s="3">
-        <v>558600</v>
+        <v>569300</v>
       </c>
       <c r="G33" s="3">
-        <v>608100</v>
+        <v>619800</v>
       </c>
       <c r="H33" s="3">
-        <v>645900</v>
+        <v>658300</v>
       </c>
       <c r="I33" s="3">
-        <v>302000</v>
+        <v>307800</v>
       </c>
       <c r="J33" s="3">
-        <v>-395200</v>
+        <v>-402800</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1200700</v>
+        <v>-1223800</v>
       </c>
       <c r="E35" s="3">
-        <v>30900</v>
+        <v>31500</v>
       </c>
       <c r="F35" s="3">
-        <v>558600</v>
+        <v>569300</v>
       </c>
       <c r="G35" s="3">
-        <v>608100</v>
+        <v>619800</v>
       </c>
       <c r="H35" s="3">
-        <v>645900</v>
+        <v>658300</v>
       </c>
       <c r="I35" s="3">
-        <v>302000</v>
+        <v>307800</v>
       </c>
       <c r="J35" s="3">
-        <v>-395200</v>
+        <v>-402800</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,250 +1510,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1424800</v>
+        <v>1452100</v>
       </c>
       <c r="E41" s="3">
-        <v>1198300</v>
+        <v>1221200</v>
       </c>
       <c r="F41" s="3">
-        <v>1494800</v>
+        <v>1523400</v>
       </c>
       <c r="G41" s="3">
-        <v>1229800</v>
+        <v>1253400</v>
       </c>
       <c r="H41" s="3">
-        <v>1278200</v>
+        <v>1302700</v>
       </c>
       <c r="I41" s="3">
-        <v>2134700</v>
+        <v>2175600</v>
       </c>
       <c r="J41" s="3">
-        <v>1385600</v>
+        <v>1412100</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3078500</v>
+        <v>3137500</v>
       </c>
       <c r="E42" s="3">
-        <v>2453200</v>
+        <v>2500200</v>
       </c>
       <c r="F42" s="3">
-        <v>2415700</v>
+        <v>2462000</v>
       </c>
       <c r="G42" s="3">
-        <v>2306700</v>
+        <v>2350900</v>
       </c>
       <c r="H42" s="3">
-        <v>2214700</v>
+        <v>2257100</v>
       </c>
       <c r="I42" s="3">
-        <v>2052300</v>
+        <v>2091700</v>
       </c>
       <c r="J42" s="3">
-        <v>21800</v>
+        <v>22200</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5231000</v>
+        <v>5331300</v>
       </c>
       <c r="E43" s="3">
-        <v>5023200</v>
+        <v>5119500</v>
       </c>
       <c r="F43" s="3">
-        <v>5004500</v>
+        <v>5100400</v>
       </c>
       <c r="G43" s="3">
-        <v>4909800</v>
+        <v>5003900</v>
       </c>
       <c r="H43" s="3">
-        <v>9663400</v>
+        <v>9848600</v>
       </c>
       <c r="I43" s="3">
-        <v>8747500</v>
+        <v>8915100</v>
       </c>
       <c r="J43" s="3">
-        <v>6093100</v>
+        <v>6209800</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1600900</v>
+        <v>1631600</v>
       </c>
       <c r="E44" s="3">
-        <v>1796600</v>
+        <v>1831100</v>
       </c>
       <c r="F44" s="3">
-        <v>1836900</v>
+        <v>1872100</v>
       </c>
       <c r="G44" s="3">
-        <v>1991100</v>
+        <v>2029300</v>
       </c>
       <c r="H44" s="3">
-        <v>1722300</v>
+        <v>1755300</v>
       </c>
       <c r="I44" s="3">
-        <v>3477600</v>
+        <v>3544200</v>
       </c>
       <c r="J44" s="3">
-        <v>1729700</v>
+        <v>1762900</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>444000</v>
+        <v>452500</v>
       </c>
       <c r="E45" s="3">
-        <v>520500</v>
+        <v>530500</v>
       </c>
       <c r="F45" s="3">
-        <v>541400</v>
+        <v>551700</v>
       </c>
       <c r="G45" s="3">
-        <v>351800</v>
+        <v>358500</v>
       </c>
       <c r="H45" s="3">
-        <v>304400</v>
+        <v>310200</v>
       </c>
       <c r="I45" s="3">
-        <v>2938300</v>
+        <v>2994600</v>
       </c>
       <c r="J45" s="3">
-        <v>584500</v>
+        <v>595700</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11779200</v>
+        <v>12004900</v>
       </c>
       <c r="E46" s="3">
-        <v>10991800</v>
+        <v>11202500</v>
       </c>
       <c r="F46" s="3">
-        <v>11293200</v>
+        <v>11509700</v>
       </c>
       <c r="G46" s="3">
-        <v>10789300</v>
+        <v>10996100</v>
       </c>
       <c r="H46" s="3">
-        <v>10351300</v>
+        <v>10549700</v>
       </c>
       <c r="I46" s="3">
-        <v>9360800</v>
+        <v>9540200</v>
       </c>
       <c r="J46" s="3">
-        <v>9814700</v>
+        <v>10002800</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6389200</v>
+        <v>6511700</v>
       </c>
       <c r="E47" s="3">
-        <v>6543800</v>
+        <v>6669200</v>
       </c>
       <c r="F47" s="3">
-        <v>6104200</v>
+        <v>6221200</v>
       </c>
       <c r="G47" s="3">
-        <v>5858500</v>
+        <v>5970800</v>
       </c>
       <c r="H47" s="3">
-        <v>5434600</v>
+        <v>5538700</v>
       </c>
       <c r="I47" s="3">
-        <v>5340600</v>
+        <v>5442900</v>
       </c>
       <c r="J47" s="3">
-        <v>4558500</v>
+        <v>4645800</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2217500</v>
+        <v>2260000</v>
       </c>
       <c r="E48" s="3">
-        <v>2406000</v>
+        <v>2452200</v>
       </c>
       <c r="F48" s="3">
-        <v>2453000</v>
+        <v>2500000</v>
       </c>
       <c r="G48" s="3">
-        <v>2453600</v>
+        <v>2500600</v>
       </c>
       <c r="H48" s="3">
-        <v>2803000</v>
+        <v>2856800</v>
       </c>
       <c r="I48" s="3">
-        <v>4942600</v>
+        <v>5037300</v>
       </c>
       <c r="J48" s="3">
-        <v>2381800</v>
+        <v>2427500</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1925900</v>
+        <v>1962900</v>
       </c>
       <c r="E49" s="3">
-        <v>3443100</v>
+        <v>3509100</v>
       </c>
       <c r="F49" s="3">
-        <v>3670700</v>
+        <v>3741100</v>
       </c>
       <c r="G49" s="3">
-        <v>3865100</v>
+        <v>3939200</v>
       </c>
       <c r="H49" s="3">
-        <v>3542300</v>
+        <v>3610200</v>
       </c>
       <c r="I49" s="3">
-        <v>4410800</v>
+        <v>4495400</v>
       </c>
       <c r="J49" s="3">
-        <v>2733400</v>
+        <v>2785800</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1114100</v>
+        <v>1135400</v>
       </c>
       <c r="E52" s="3">
-        <v>1090100</v>
+        <v>1111000</v>
       </c>
       <c r="F52" s="3">
-        <v>1106000</v>
+        <v>1127200</v>
       </c>
       <c r="G52" s="3">
-        <v>1250400</v>
+        <v>1274400</v>
       </c>
       <c r="H52" s="3">
-        <v>1302800</v>
+        <v>1327700</v>
       </c>
       <c r="I52" s="3">
-        <v>6387600</v>
+        <v>6510100</v>
       </c>
       <c r="J52" s="3">
-        <v>818200</v>
+        <v>833900</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23425900</v>
+        <v>23874900</v>
       </c>
       <c r="E54" s="3">
-        <v>24474900</v>
+        <v>24944000</v>
       </c>
       <c r="F54" s="3">
-        <v>24627200</v>
+        <v>25099200</v>
       </c>
       <c r="G54" s="3">
-        <v>24216900</v>
+        <v>24681100</v>
       </c>
       <c r="H54" s="3">
-        <v>23032000</v>
+        <v>23473400</v>
       </c>
       <c r="I54" s="3">
-        <v>21209600</v>
+        <v>21616100</v>
       </c>
       <c r="J54" s="3">
-        <v>20306600</v>
+        <v>20695800</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2667400</v>
+        <v>2718500</v>
       </c>
       <c r="E57" s="3">
-        <v>2623600</v>
+        <v>2673900</v>
       </c>
       <c r="F57" s="3">
-        <v>2537900</v>
+        <v>2586600</v>
       </c>
       <c r="G57" s="3">
-        <v>2456900</v>
+        <v>2504000</v>
       </c>
       <c r="H57" s="3">
-        <v>2501000</v>
+        <v>2548900</v>
       </c>
       <c r="I57" s="3">
-        <v>4224300</v>
+        <v>4305300</v>
       </c>
       <c r="J57" s="3">
-        <v>2134600</v>
+        <v>2175500</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1983700</v>
+        <v>2017700</v>
       </c>
       <c r="E58" s="3">
-        <v>2059400</v>
+        <v>2078700</v>
       </c>
       <c r="F58" s="3">
-        <v>2329000</v>
+        <v>2357200</v>
       </c>
       <c r="G58" s="3">
-        <v>1969700</v>
+        <v>2007500</v>
       </c>
       <c r="H58" s="3">
-        <v>2410600</v>
+        <v>2456800</v>
       </c>
       <c r="I58" s="3">
-        <v>4028200</v>
+        <v>4105500</v>
       </c>
       <c r="J58" s="3">
-        <v>2022200</v>
+        <v>2061000</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2343000</v>
+        <v>2392000</v>
       </c>
       <c r="E59" s="3">
-        <v>2474400</v>
+        <v>2542000</v>
       </c>
       <c r="F59" s="3">
-        <v>2290000</v>
+        <v>2350300</v>
       </c>
       <c r="G59" s="3">
-        <v>2422300</v>
+        <v>2468700</v>
       </c>
       <c r="H59" s="3">
-        <v>2501000</v>
+        <v>2549000</v>
       </c>
       <c r="I59" s="3">
-        <v>4176000</v>
+        <v>4256000</v>
       </c>
       <c r="J59" s="3">
-        <v>1812900</v>
+        <v>1847600</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6994200</v>
+        <v>7128200</v>
       </c>
       <c r="E60" s="3">
-        <v>7157400</v>
+        <v>7294600</v>
       </c>
       <c r="F60" s="3">
-        <v>7156900</v>
+        <v>7294100</v>
       </c>
       <c r="G60" s="3">
-        <v>6848900</v>
+        <v>6980100</v>
       </c>
       <c r="H60" s="3">
-        <v>7412600</v>
+        <v>7554600</v>
       </c>
       <c r="I60" s="3">
-        <v>6216300</v>
+        <v>6335400</v>
       </c>
       <c r="J60" s="3">
-        <v>5969700</v>
+        <v>6084100</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5842700</v>
+        <v>5954700</v>
       </c>
       <c r="E61" s="3">
-        <v>5586300</v>
+        <v>5693400</v>
       </c>
       <c r="F61" s="3">
-        <v>5251400</v>
+        <v>5352100</v>
       </c>
       <c r="G61" s="3">
-        <v>5042700</v>
+        <v>5139400</v>
       </c>
       <c r="H61" s="3">
-        <v>4012800</v>
+        <v>4089700</v>
       </c>
       <c r="I61" s="3">
-        <v>4209600</v>
+        <v>4290300</v>
       </c>
       <c r="J61" s="3">
-        <v>4660600</v>
+        <v>4749900</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1818800</v>
+        <v>1853600</v>
       </c>
       <c r="E62" s="3">
-        <v>1824400</v>
+        <v>1859400</v>
       </c>
       <c r="F62" s="3">
-        <v>2038200</v>
+        <v>2077200</v>
       </c>
       <c r="G62" s="3">
-        <v>2086600</v>
+        <v>2126600</v>
       </c>
       <c r="H62" s="3">
-        <v>1899400</v>
+        <v>1935800</v>
       </c>
       <c r="I62" s="3">
-        <v>4142600</v>
+        <v>4222000</v>
       </c>
       <c r="J62" s="3">
-        <v>1879400</v>
+        <v>1915400</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15358100</v>
+        <v>15652400</v>
       </c>
       <c r="E66" s="3">
-        <v>15231400</v>
+        <v>15523300</v>
       </c>
       <c r="F66" s="3">
-        <v>15067000</v>
+        <v>15355800</v>
       </c>
       <c r="G66" s="3">
-        <v>14600400</v>
+        <v>14880200</v>
       </c>
       <c r="H66" s="3">
-        <v>13901100</v>
+        <v>14167500</v>
       </c>
       <c r="I66" s="3">
-        <v>13105100</v>
+        <v>13356200</v>
       </c>
       <c r="J66" s="3">
-        <v>13009200</v>
+        <v>13258600</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4524700</v>
+        <v>4611400</v>
       </c>
       <c r="E72" s="3">
-        <v>5831500</v>
+        <v>5943300</v>
       </c>
       <c r="F72" s="3">
-        <v>6017600</v>
+        <v>6133000</v>
       </c>
       <c r="G72" s="3">
-        <v>5734200</v>
+        <v>5844100</v>
       </c>
       <c r="H72" s="3">
-        <v>5546800</v>
+        <v>5653100</v>
       </c>
       <c r="I72" s="3">
-        <v>11802200</v>
+        <v>12028400</v>
       </c>
       <c r="J72" s="3">
-        <v>6586400</v>
+        <v>6712600</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8067800</v>
+        <v>8222500</v>
       </c>
       <c r="E76" s="3">
-        <v>9243500</v>
+        <v>9420600</v>
       </c>
       <c r="F76" s="3">
-        <v>9560200</v>
+        <v>9743400</v>
       </c>
       <c r="G76" s="3">
-        <v>9616600</v>
+        <v>9800900</v>
       </c>
       <c r="H76" s="3">
-        <v>9130900</v>
+        <v>9305900</v>
       </c>
       <c r="I76" s="3">
-        <v>8104600</v>
+        <v>8259900</v>
       </c>
       <c r="J76" s="3">
-        <v>7297400</v>
+        <v>7437200</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1200700</v>
+        <v>-1223800</v>
       </c>
       <c r="E81" s="3">
-        <v>30900</v>
+        <v>31500</v>
       </c>
       <c r="F81" s="3">
-        <v>558600</v>
+        <v>569300</v>
       </c>
       <c r="G81" s="3">
-        <v>608100</v>
+        <v>619800</v>
       </c>
       <c r="H81" s="3">
-        <v>645900</v>
+        <v>658300</v>
       </c>
       <c r="I81" s="3">
-        <v>302000</v>
+        <v>307800</v>
       </c>
       <c r="J81" s="3">
-        <v>-395200</v>
+        <v>-402800</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>960900</v>
+        <v>979300</v>
       </c>
       <c r="E83" s="3">
-        <v>948100</v>
+        <v>966300</v>
       </c>
       <c r="F83" s="3">
-        <v>952300</v>
+        <v>970600</v>
       </c>
       <c r="G83" s="3">
-        <v>956500</v>
+        <v>974800</v>
       </c>
       <c r="H83" s="3">
-        <v>942300</v>
+        <v>960300</v>
       </c>
       <c r="I83" s="3">
-        <v>850800</v>
+        <v>867100</v>
       </c>
       <c r="J83" s="3">
-        <v>808400</v>
+        <v>823900</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>978300</v>
+        <v>997000</v>
       </c>
       <c r="E89" s="3">
-        <v>783200</v>
+        <v>798200</v>
       </c>
       <c r="F89" s="3">
-        <v>885700</v>
+        <v>902700</v>
       </c>
       <c r="G89" s="3">
-        <v>909600</v>
+        <v>927000</v>
       </c>
       <c r="H89" s="3">
-        <v>1302900</v>
+        <v>1327900</v>
       </c>
       <c r="I89" s="3">
-        <v>1218000</v>
+        <v>1241400</v>
       </c>
       <c r="J89" s="3">
-        <v>99400</v>
+        <v>101300</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-948900</v>
+        <v>-653500</v>
       </c>
       <c r="E91" s="3">
-        <v>-906900</v>
+        <v>-682000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1000100</v>
+        <v>-757400</v>
       </c>
       <c r="G91" s="3">
-        <v>-993300</v>
+        <v>-686800</v>
       </c>
       <c r="H91" s="3">
-        <v>-958200</v>
+        <v>-659900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1888100</v>
+        <v>-1499300</v>
       </c>
       <c r="J91" s="3">
-        <v>-778600</v>
+        <v>-662400</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-719200</v>
+        <v>-732900</v>
       </c>
       <c r="E94" s="3">
-        <v>-946600</v>
+        <v>-964700</v>
       </c>
       <c r="F94" s="3">
-        <v>-923700</v>
+        <v>-941400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1272500</v>
+        <v>-1296900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1090500</v>
+        <v>-1111400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1079900</v>
+        <v>-1100600</v>
       </c>
       <c r="J94" s="3">
-        <v>-997400</v>
+        <v>-1016500</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-128600</v>
+        <v>-131100</v>
       </c>
       <c r="E96" s="3">
-        <v>-257200</v>
+        <v>-262100</v>
       </c>
       <c r="F96" s="3">
-        <v>-221800</v>
+        <v>-226100</v>
       </c>
       <c r="G96" s="3">
-        <v>-215400</v>
+        <v>-219500</v>
       </c>
       <c r="H96" s="3">
-        <v>-212200</v>
+        <v>-216300</v>
       </c>
       <c r="I96" s="3">
-        <v>-135100</v>
+        <v>-137600</v>
       </c>
       <c r="J96" s="3">
-        <v>-212400</v>
+        <v>-216400</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>56800</v>
+        <v>57900</v>
       </c>
       <c r="E100" s="3">
-        <v>-176700</v>
+        <v>-180100</v>
       </c>
       <c r="F100" s="3">
-        <v>378500</v>
+        <v>385700</v>
       </c>
       <c r="G100" s="3">
-        <v>265500</v>
+        <v>270600</v>
       </c>
       <c r="H100" s="3">
-        <v>-81900</v>
+        <v>-83500</v>
       </c>
       <c r="I100" s="3">
-        <v>-548500</v>
+        <v>-559000</v>
       </c>
       <c r="J100" s="3">
-        <v>779000</v>
+        <v>793900</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="E101" s="3">
-        <v>-24700</v>
+        <v>-25100</v>
       </c>
       <c r="F101" s="3">
-        <v>-76000</v>
+        <v>-77400</v>
       </c>
       <c r="G101" s="3">
-        <v>76700</v>
+        <v>78200</v>
       </c>
       <c r="H101" s="3">
-        <v>73400</v>
+        <v>74800</v>
       </c>
       <c r="I101" s="3">
-        <v>63000</v>
+        <v>64200</v>
       </c>
       <c r="J101" s="3">
-        <v>-23000</v>
+        <v>-23500</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>302800</v>
+        <v>308600</v>
       </c>
       <c r="E102" s="3">
-        <v>-364700</v>
+        <v>-371700</v>
       </c>
       <c r="F102" s="3">
-        <v>264500</v>
+        <v>269600</v>
       </c>
       <c r="G102" s="3">
-        <v>-20600</v>
+        <v>-21000</v>
       </c>
       <c r="H102" s="3">
-        <v>204000</v>
+        <v>207900</v>
       </c>
       <c r="I102" s="3">
-        <v>-347300</v>
+        <v>-354000</v>
       </c>
       <c r="J102" s="3">
-        <v>-142000</v>
+        <v>-144700</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/RICOY_YR_FIN.xlsx
+++ b/Financials/Yearly/RICOY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF215B9D-5462-45EB-BEF4-0BC3450400A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="RICOY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>RICOY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42825</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42460</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42094</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18652800</v>
+        <v>18300200</v>
       </c>
       <c r="E8" s="3">
-        <v>18341200</v>
+        <v>18756000</v>
       </c>
       <c r="F8" s="3">
-        <v>19969600</v>
+        <v>18442700</v>
       </c>
       <c r="G8" s="3">
-        <v>19448700</v>
+        <v>20080100</v>
       </c>
       <c r="H8" s="3">
-        <v>19849100</v>
+        <v>19556300</v>
       </c>
       <c r="I8" s="3">
-        <v>17049400</v>
+        <v>19958900</v>
       </c>
       <c r="J8" s="3">
+        <v>17143700</v>
+      </c>
+      <c r="K8" s="3">
         <v>17207400</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11502100</v>
+        <v>11329300</v>
       </c>
       <c r="E9" s="3">
-        <v>11212000</v>
+        <v>11565700</v>
       </c>
       <c r="F9" s="3">
-        <v>11996700</v>
+        <v>11274100</v>
       </c>
       <c r="G9" s="3">
-        <v>11250200</v>
+        <v>12063000</v>
       </c>
       <c r="H9" s="3">
-        <v>11955100</v>
+        <v>11312400</v>
       </c>
       <c r="I9" s="3">
-        <v>20722200</v>
+        <v>12021300</v>
       </c>
       <c r="J9" s="3">
+        <v>20836800</v>
+      </c>
+      <c r="K9" s="3">
         <v>10403700</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7150700</v>
+        <v>6971000</v>
       </c>
       <c r="E10" s="3">
-        <v>7129200</v>
+        <v>7190200</v>
       </c>
       <c r="F10" s="3">
-        <v>7973000</v>
+        <v>7168600</v>
       </c>
       <c r="G10" s="3">
-        <v>8198500</v>
+        <v>8017100</v>
       </c>
       <c r="H10" s="3">
-        <v>7894000</v>
+        <v>8243900</v>
       </c>
       <c r="I10" s="3">
-        <v>-3672800</v>
+        <v>7937600</v>
       </c>
       <c r="J10" s="3">
+        <v>-3693100</v>
+      </c>
+      <c r="K10" s="3">
         <v>6803700</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>849700</v>
+        <v>854700</v>
       </c>
       <c r="E12" s="3">
-        <v>907500</v>
+        <v>854400</v>
       </c>
       <c r="F12" s="3">
-        <v>922500</v>
+        <v>912500</v>
       </c>
       <c r="G12" s="3">
-        <v>888500</v>
+        <v>927600</v>
       </c>
       <c r="H12" s="3">
-        <v>853100</v>
+        <v>893400</v>
       </c>
       <c r="I12" s="3">
-        <v>1820900</v>
+        <v>857800</v>
       </c>
       <c r="J12" s="3">
+        <v>1831000</v>
+      </c>
+      <c r="K12" s="3">
         <v>1076000</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1823500</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>194700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1833600</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>9100</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
-        <v>102400</v>
+        <v>9200</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>102900</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>293800</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>362400</v>
+        <v>226000</v>
       </c>
       <c r="E15" s="3">
-        <v>364200</v>
+        <v>364400</v>
       </c>
       <c r="F15" s="3">
-        <v>335700</v>
+        <v>366200</v>
       </c>
       <c r="G15" s="3">
-        <v>337200</v>
+        <v>337600</v>
       </c>
       <c r="H15" s="3">
-        <v>335500</v>
+        <v>339100</v>
       </c>
       <c r="I15" s="3">
-        <v>320100</v>
-      </c>
-      <c r="J15" s="3" t="s">
+        <v>337300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>321800</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19698500</v>
+        <v>17510900</v>
       </c>
       <c r="E17" s="3">
-        <v>18035000</v>
+        <v>19807500</v>
       </c>
       <c r="F17" s="3">
-        <v>19044900</v>
+        <v>18134700</v>
       </c>
       <c r="G17" s="3">
-        <v>18402200</v>
+        <v>19150200</v>
       </c>
       <c r="H17" s="3">
-        <v>18761200</v>
+        <v>18504000</v>
       </c>
       <c r="I17" s="3">
-        <v>16384500</v>
+        <v>18864900</v>
       </c>
       <c r="J17" s="3">
+        <v>16475100</v>
+      </c>
+      <c r="K17" s="3">
         <v>17416100</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1045700</v>
+        <v>789400</v>
       </c>
       <c r="E18" s="3">
-        <v>306300</v>
+        <v>-1051500</v>
       </c>
       <c r="F18" s="3">
-        <v>924700</v>
+        <v>308000</v>
       </c>
       <c r="G18" s="3">
-        <v>1046500</v>
+        <v>929900</v>
       </c>
       <c r="H18" s="3">
-        <v>1087900</v>
+        <v>1052300</v>
       </c>
       <c r="I18" s="3">
-        <v>664900</v>
+        <v>1093900</v>
       </c>
       <c r="J18" s="3">
+        <v>668600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-208600</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16100</v>
+        <v>28100</v>
       </c>
       <c r="E20" s="3">
-        <v>32800</v>
+        <v>-16200</v>
       </c>
       <c r="F20" s="3">
+        <v>33000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
-        <v>32900</v>
-      </c>
       <c r="H20" s="3">
-        <v>46700</v>
+        <v>33100</v>
       </c>
       <c r="I20" s="3">
-        <v>83900</v>
+        <v>47000</v>
       </c>
       <c r="J20" s="3">
+        <v>84400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-17000</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-81400</v>
+        <v>1676400</v>
       </c>
       <c r="E21" s="3">
-        <v>1306400</v>
+        <v>-80800</v>
       </c>
       <c r="F21" s="3">
-        <v>1895800</v>
+        <v>1314700</v>
       </c>
       <c r="G21" s="3">
-        <v>2055400</v>
+        <v>1907300</v>
       </c>
       <c r="H21" s="3">
-        <v>2096000</v>
+        <v>2067800</v>
       </c>
       <c r="I21" s="3">
-        <v>1616900</v>
+        <v>2108700</v>
       </c>
       <c r="J21" s="3">
+        <v>1626800</v>
+      </c>
+      <c r="K21" s="3">
         <v>599200</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>60800</v>
+        <v>54200</v>
       </c>
       <c r="E22" s="3">
-        <v>68300</v>
+        <v>61100</v>
       </c>
       <c r="F22" s="3">
-        <v>59100</v>
+        <v>68600</v>
       </c>
       <c r="G22" s="3">
-        <v>64300</v>
+        <v>59500</v>
       </c>
       <c r="H22" s="3">
-        <v>67400</v>
+        <v>64600</v>
       </c>
       <c r="I22" s="3">
-        <v>133400</v>
+        <v>67700</v>
       </c>
       <c r="J22" s="3">
+        <v>134100</v>
+      </c>
+      <c r="K22" s="3">
         <v>63100</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1122600</v>
+        <v>763200</v>
       </c>
       <c r="E23" s="3">
-        <v>270800</v>
+        <v>-1128800</v>
       </c>
       <c r="F23" s="3">
-        <v>865000</v>
+        <v>272300</v>
       </c>
       <c r="G23" s="3">
-        <v>1015200</v>
+        <v>869800</v>
       </c>
       <c r="H23" s="3">
-        <v>1067300</v>
+        <v>1020800</v>
       </c>
       <c r="I23" s="3">
-        <v>615500</v>
+        <v>1073200</v>
       </c>
       <c r="J23" s="3">
+        <v>618900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-288700</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37500</v>
+        <v>259900</v>
       </c>
       <c r="E24" s="3">
-        <v>185500</v>
+        <v>37700</v>
       </c>
       <c r="F24" s="3">
-        <v>256500</v>
+        <v>186500</v>
       </c>
       <c r="G24" s="3">
-        <v>348900</v>
+        <v>258000</v>
       </c>
       <c r="H24" s="3">
-        <v>358100</v>
+        <v>350900</v>
       </c>
       <c r="I24" s="3">
-        <v>219300</v>
+        <v>360100</v>
       </c>
       <c r="J24" s="3">
+        <v>220600</v>
+      </c>
+      <c r="K24" s="3">
         <v>74300</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1160100</v>
+        <v>503400</v>
       </c>
       <c r="E26" s="3">
-        <v>85300</v>
+        <v>-1166500</v>
       </c>
       <c r="F26" s="3">
-        <v>608400</v>
+        <v>85800</v>
       </c>
       <c r="G26" s="3">
-        <v>666200</v>
+        <v>611800</v>
       </c>
       <c r="H26" s="3">
-        <v>709200</v>
+        <v>669900</v>
       </c>
       <c r="I26" s="3">
-        <v>396100</v>
+        <v>713100</v>
       </c>
       <c r="J26" s="3">
+        <v>398300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-363000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1211900</v>
+        <v>450200</v>
       </c>
       <c r="E27" s="3">
-        <v>31500</v>
+        <v>-1218600</v>
       </c>
       <c r="F27" s="3">
-        <v>569300</v>
+        <v>31700</v>
       </c>
       <c r="G27" s="3">
-        <v>619800</v>
+        <v>572400</v>
       </c>
       <c r="H27" s="3">
-        <v>658300</v>
+        <v>623200</v>
       </c>
       <c r="I27" s="3">
-        <v>307800</v>
+        <v>661900</v>
       </c>
       <c r="J27" s="3">
+        <v>309500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-402800</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,17 +1283,20 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
         <v>-11900</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16100</v>
+        <v>-28100</v>
       </c>
       <c r="E32" s="3">
-        <v>-32800</v>
+        <v>16200</v>
       </c>
       <c r="F32" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-32900</v>
-      </c>
       <c r="H32" s="3">
-        <v>-46700</v>
+        <v>-33100</v>
       </c>
       <c r="I32" s="3">
-        <v>-83900</v>
+        <v>-47000</v>
       </c>
       <c r="J32" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="K32" s="3">
         <v>17000</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1223800</v>
+        <v>450200</v>
       </c>
       <c r="E33" s="3">
-        <v>31500</v>
+        <v>-1230500</v>
       </c>
       <c r="F33" s="3">
-        <v>569300</v>
+        <v>31700</v>
       </c>
       <c r="G33" s="3">
-        <v>619800</v>
+        <v>572400</v>
       </c>
       <c r="H33" s="3">
-        <v>658300</v>
+        <v>623200</v>
       </c>
       <c r="I33" s="3">
-        <v>307800</v>
+        <v>661900</v>
       </c>
       <c r="J33" s="3">
+        <v>309500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-402800</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1223800</v>
+        <v>450200</v>
       </c>
       <c r="E35" s="3">
-        <v>31500</v>
+        <v>-1230500</v>
       </c>
       <c r="F35" s="3">
-        <v>569300</v>
+        <v>31700</v>
       </c>
       <c r="G35" s="3">
-        <v>619800</v>
+        <v>572400</v>
       </c>
       <c r="H35" s="3">
-        <v>658300</v>
+        <v>623200</v>
       </c>
       <c r="I35" s="3">
-        <v>307800</v>
+        <v>661900</v>
       </c>
       <c r="J35" s="3">
+        <v>309500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-402800</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42825</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42460</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42094</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1452100</v>
+        <v>2183100</v>
       </c>
       <c r="E41" s="3">
-        <v>1221200</v>
+        <v>1460200</v>
       </c>
       <c r="F41" s="3">
-        <v>1523400</v>
+        <v>1228000</v>
       </c>
       <c r="G41" s="3">
-        <v>1253400</v>
+        <v>1531800</v>
       </c>
       <c r="H41" s="3">
-        <v>1302700</v>
+        <v>1260300</v>
       </c>
       <c r="I41" s="3">
-        <v>2175600</v>
+        <v>1309900</v>
       </c>
       <c r="J41" s="3">
+        <v>2187600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1412100</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3137500</v>
+        <v>2675700</v>
       </c>
       <c r="E42" s="3">
-        <v>2500200</v>
+        <v>3154800</v>
       </c>
       <c r="F42" s="3">
-        <v>2462000</v>
+        <v>2514100</v>
       </c>
       <c r="G42" s="3">
-        <v>2350900</v>
+        <v>2475600</v>
       </c>
       <c r="H42" s="3">
-        <v>2257100</v>
+        <v>2363900</v>
       </c>
       <c r="I42" s="3">
-        <v>2091700</v>
+        <v>2269600</v>
       </c>
       <c r="J42" s="3">
+        <v>2103200</v>
+      </c>
+      <c r="K42" s="3">
         <v>22200</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5331300</v>
+        <v>5497700</v>
       </c>
       <c r="E43" s="3">
-        <v>5119500</v>
+        <v>5360700</v>
       </c>
       <c r="F43" s="3">
-        <v>5100400</v>
+        <v>5147800</v>
       </c>
       <c r="G43" s="3">
-        <v>5003900</v>
+        <v>5128600</v>
       </c>
       <c r="H43" s="3">
-        <v>9848600</v>
+        <v>5031600</v>
       </c>
       <c r="I43" s="3">
-        <v>8915100</v>
+        <v>9903100</v>
       </c>
       <c r="J43" s="3">
+        <v>8964400</v>
+      </c>
+      <c r="K43" s="3">
         <v>6209800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1631600</v>
+        <v>1888400</v>
       </c>
       <c r="E44" s="3">
-        <v>1831100</v>
+        <v>1640600</v>
       </c>
       <c r="F44" s="3">
-        <v>1872100</v>
+        <v>1841200</v>
       </c>
       <c r="G44" s="3">
-        <v>2029300</v>
+        <v>1882500</v>
       </c>
       <c r="H44" s="3">
-        <v>1755300</v>
+        <v>2040500</v>
       </c>
       <c r="I44" s="3">
-        <v>3544200</v>
+        <v>1765000</v>
       </c>
       <c r="J44" s="3">
+        <v>3563900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1762900</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>452500</v>
+        <v>388100</v>
       </c>
       <c r="E45" s="3">
-        <v>530500</v>
+        <v>455000</v>
       </c>
       <c r="F45" s="3">
-        <v>551700</v>
+        <v>533400</v>
       </c>
       <c r="G45" s="3">
-        <v>358500</v>
+        <v>554800</v>
       </c>
       <c r="H45" s="3">
-        <v>310200</v>
+        <v>360500</v>
       </c>
       <c r="I45" s="3">
-        <v>2994600</v>
+        <v>311900</v>
       </c>
       <c r="J45" s="3">
+        <v>3011200</v>
+      </c>
+      <c r="K45" s="3">
         <v>595700</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12004900</v>
+        <v>12632900</v>
       </c>
       <c r="E46" s="3">
-        <v>11202500</v>
+        <v>12071300</v>
       </c>
       <c r="F46" s="3">
-        <v>11509700</v>
+        <v>11264500</v>
       </c>
       <c r="G46" s="3">
-        <v>10996100</v>
+        <v>11573300</v>
       </c>
       <c r="H46" s="3">
-        <v>10549700</v>
+        <v>11056900</v>
       </c>
       <c r="I46" s="3">
-        <v>9540200</v>
+        <v>10608000</v>
       </c>
       <c r="J46" s="3">
+        <v>9593000</v>
+      </c>
+      <c r="K46" s="3">
         <v>10002800</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6511700</v>
+        <v>6756200</v>
       </c>
       <c r="E47" s="3">
-        <v>6669200</v>
+        <v>6547700</v>
       </c>
       <c r="F47" s="3">
-        <v>6221200</v>
+        <v>6706100</v>
       </c>
       <c r="G47" s="3">
-        <v>5970800</v>
+        <v>6255600</v>
       </c>
       <c r="H47" s="3">
-        <v>5538700</v>
+        <v>6003800</v>
       </c>
       <c r="I47" s="3">
-        <v>5442900</v>
+        <v>5569400</v>
       </c>
       <c r="J47" s="3">
+        <v>5473000</v>
+      </c>
+      <c r="K47" s="3">
         <v>4645800</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2260000</v>
+        <v>2275100</v>
       </c>
       <c r="E48" s="3">
-        <v>2452200</v>
+        <v>2272500</v>
       </c>
       <c r="F48" s="3">
-        <v>2500000</v>
+        <v>2465700</v>
       </c>
       <c r="G48" s="3">
-        <v>2500600</v>
+        <v>2513800</v>
       </c>
       <c r="H48" s="3">
-        <v>2856800</v>
+        <v>2514400</v>
       </c>
       <c r="I48" s="3">
-        <v>5037300</v>
+        <v>2872600</v>
       </c>
       <c r="J48" s="3">
+        <v>5065200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2427500</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1962900</v>
+        <v>1998000</v>
       </c>
       <c r="E49" s="3">
-        <v>3509100</v>
+        <v>1973700</v>
       </c>
       <c r="F49" s="3">
-        <v>3741100</v>
+        <v>3528500</v>
       </c>
       <c r="G49" s="3">
-        <v>3939200</v>
+        <v>3761800</v>
       </c>
       <c r="H49" s="3">
-        <v>3610200</v>
+        <v>3961000</v>
       </c>
       <c r="I49" s="3">
-        <v>4495400</v>
+        <v>3630100</v>
       </c>
       <c r="J49" s="3">
+        <v>4520200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2785800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1135400</v>
+        <v>1109100</v>
       </c>
       <c r="E52" s="3">
-        <v>1111000</v>
+        <v>1141700</v>
       </c>
       <c r="F52" s="3">
-        <v>1127200</v>
+        <v>1117100</v>
       </c>
       <c r="G52" s="3">
-        <v>1274400</v>
+        <v>1133400</v>
       </c>
       <c r="H52" s="3">
-        <v>1327700</v>
+        <v>1281400</v>
       </c>
       <c r="I52" s="3">
-        <v>6510100</v>
+        <v>1335100</v>
       </c>
       <c r="J52" s="3">
+        <v>6546100</v>
+      </c>
+      <c r="K52" s="3">
         <v>833900</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23874900</v>
+        <v>24771400</v>
       </c>
       <c r="E54" s="3">
-        <v>24944000</v>
+        <v>24007000</v>
       </c>
       <c r="F54" s="3">
-        <v>25099200</v>
+        <v>25081900</v>
       </c>
       <c r="G54" s="3">
-        <v>24681100</v>
+        <v>25238000</v>
       </c>
       <c r="H54" s="3">
-        <v>23473400</v>
+        <v>24817600</v>
       </c>
       <c r="I54" s="3">
-        <v>21616100</v>
+        <v>23603300</v>
       </c>
       <c r="J54" s="3">
+        <v>21735700</v>
+      </c>
+      <c r="K54" s="3">
         <v>20695800</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2718500</v>
+        <v>1892800</v>
       </c>
       <c r="E57" s="3">
-        <v>2673900</v>
+        <v>1767200</v>
       </c>
       <c r="F57" s="3">
-        <v>2586600</v>
+        <v>1774600</v>
       </c>
       <c r="G57" s="3">
-        <v>2504000</v>
+        <v>1802300</v>
       </c>
       <c r="H57" s="3">
-        <v>2548900</v>
+        <v>1812500</v>
       </c>
       <c r="I57" s="3">
-        <v>4305300</v>
+        <v>1950200</v>
       </c>
       <c r="J57" s="3">
+        <v>3862300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2175500</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2017700</v>
+        <v>2426600</v>
       </c>
       <c r="E58" s="3">
-        <v>2078700</v>
+        <v>2028800</v>
       </c>
       <c r="F58" s="3">
-        <v>2357200</v>
+        <v>2090200</v>
       </c>
       <c r="G58" s="3">
-        <v>2007500</v>
+        <v>2370300</v>
       </c>
       <c r="H58" s="3">
-        <v>2456800</v>
+        <v>2018600</v>
       </c>
       <c r="I58" s="3">
-        <v>4105500</v>
+        <v>2470400</v>
       </c>
       <c r="J58" s="3">
+        <v>4128200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2061000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2392000</v>
+        <v>3354300</v>
       </c>
       <c r="E59" s="3">
-        <v>2542000</v>
+        <v>3371600</v>
       </c>
       <c r="F59" s="3">
-        <v>2350300</v>
+        <v>3470200</v>
       </c>
       <c r="G59" s="3">
-        <v>2468700</v>
+        <v>3161900</v>
       </c>
       <c r="H59" s="3">
-        <v>2549000</v>
+        <v>3187700</v>
       </c>
       <c r="I59" s="3">
-        <v>4256000</v>
+        <v>3175800</v>
       </c>
       <c r="J59" s="3">
+        <v>4746300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1847600</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7128200</v>
+        <v>7673800</v>
       </c>
       <c r="E60" s="3">
-        <v>7294600</v>
+        <v>7167700</v>
       </c>
       <c r="F60" s="3">
-        <v>7294100</v>
+        <v>7334900</v>
       </c>
       <c r="G60" s="3">
-        <v>6980100</v>
+        <v>7334400</v>
       </c>
       <c r="H60" s="3">
-        <v>7554600</v>
+        <v>7018700</v>
       </c>
       <c r="I60" s="3">
-        <v>6335400</v>
+        <v>7596400</v>
       </c>
       <c r="J60" s="3">
+        <v>6370500</v>
+      </c>
+      <c r="K60" s="3">
         <v>6084100</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5954700</v>
+        <v>6058100</v>
       </c>
       <c r="E61" s="3">
-        <v>5693400</v>
+        <v>5987600</v>
       </c>
       <c r="F61" s="3">
-        <v>5352100</v>
+        <v>5724900</v>
       </c>
       <c r="G61" s="3">
-        <v>5139400</v>
+        <v>5381700</v>
       </c>
       <c r="H61" s="3">
-        <v>4089700</v>
+        <v>5167800</v>
       </c>
       <c r="I61" s="3">
-        <v>4290300</v>
+        <v>4112300</v>
       </c>
       <c r="J61" s="3">
+        <v>4314000</v>
+      </c>
+      <c r="K61" s="3">
         <v>4749900</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1853600</v>
+        <v>1776900</v>
       </c>
       <c r="E62" s="3">
-        <v>1859400</v>
+        <v>1863900</v>
       </c>
       <c r="F62" s="3">
-        <v>2077200</v>
+        <v>1869700</v>
       </c>
       <c r="G62" s="3">
-        <v>2126600</v>
+        <v>2088700</v>
       </c>
       <c r="H62" s="3">
-        <v>1935800</v>
+        <v>2138300</v>
       </c>
       <c r="I62" s="3">
-        <v>4222000</v>
+        <v>1946500</v>
       </c>
       <c r="J62" s="3">
+        <v>4245400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1915400</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15652400</v>
+        <v>16294300</v>
       </c>
       <c r="E66" s="3">
-        <v>15523300</v>
+        <v>15739000</v>
       </c>
       <c r="F66" s="3">
-        <v>15355800</v>
+        <v>15609200</v>
       </c>
       <c r="G66" s="3">
-        <v>14880200</v>
+        <v>15440700</v>
       </c>
       <c r="H66" s="3">
-        <v>14167500</v>
+        <v>14962500</v>
       </c>
       <c r="I66" s="3">
-        <v>13356200</v>
+        <v>14245900</v>
       </c>
       <c r="J66" s="3">
+        <v>13430100</v>
+      </c>
+      <c r="K66" s="3">
         <v>13258600</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4611400</v>
+        <v>5225600</v>
       </c>
       <c r="E72" s="3">
-        <v>5943300</v>
+        <v>4636900</v>
       </c>
       <c r="F72" s="3">
-        <v>6133000</v>
+        <v>5976200</v>
       </c>
       <c r="G72" s="3">
-        <v>5844100</v>
+        <v>6166900</v>
       </c>
       <c r="H72" s="3">
-        <v>5653100</v>
+        <v>5876400</v>
       </c>
       <c r="I72" s="3">
-        <v>12028400</v>
+        <v>5684300</v>
       </c>
       <c r="J72" s="3">
+        <v>12094900</v>
+      </c>
+      <c r="K72" s="3">
         <v>6712600</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8222500</v>
+        <v>8477100</v>
       </c>
       <c r="E76" s="3">
-        <v>9420600</v>
+        <v>8267900</v>
       </c>
       <c r="F76" s="3">
-        <v>9743400</v>
+        <v>9472700</v>
       </c>
       <c r="G76" s="3">
-        <v>9800900</v>
+        <v>9797300</v>
       </c>
       <c r="H76" s="3">
-        <v>9305900</v>
+        <v>9855100</v>
       </c>
       <c r="I76" s="3">
-        <v>8259900</v>
+        <v>9357400</v>
       </c>
       <c r="J76" s="3">
+        <v>8305600</v>
+      </c>
+      <c r="K76" s="3">
         <v>7437200</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42825</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42460</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42094</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1223800</v>
+        <v>450200</v>
       </c>
       <c r="E81" s="3">
-        <v>31500</v>
+        <v>-1230500</v>
       </c>
       <c r="F81" s="3">
-        <v>569300</v>
+        <v>31700</v>
       </c>
       <c r="G81" s="3">
-        <v>619800</v>
+        <v>572400</v>
       </c>
       <c r="H81" s="3">
-        <v>658300</v>
+        <v>623200</v>
       </c>
       <c r="I81" s="3">
-        <v>307800</v>
+        <v>661900</v>
       </c>
       <c r="J81" s="3">
+        <v>309500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-402800</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>979300</v>
+        <v>857100</v>
       </c>
       <c r="E83" s="3">
-        <v>966300</v>
+        <v>984700</v>
       </c>
       <c r="F83" s="3">
-        <v>970600</v>
+        <v>971600</v>
       </c>
       <c r="G83" s="3">
-        <v>974800</v>
+        <v>976000</v>
       </c>
       <c r="H83" s="3">
-        <v>960300</v>
+        <v>980200</v>
       </c>
       <c r="I83" s="3">
-        <v>867100</v>
+        <v>965600</v>
       </c>
       <c r="J83" s="3">
+        <v>871900</v>
+      </c>
+      <c r="K83" s="3">
         <v>823900</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>997000</v>
+        <v>744900</v>
       </c>
       <c r="E89" s="3">
-        <v>798200</v>
+        <v>1002500</v>
       </c>
       <c r="F89" s="3">
-        <v>902700</v>
+        <v>802600</v>
       </c>
       <c r="G89" s="3">
-        <v>927000</v>
+        <v>907700</v>
       </c>
       <c r="H89" s="3">
-        <v>1327900</v>
+        <v>932100</v>
       </c>
       <c r="I89" s="3">
-        <v>1241400</v>
+        <v>1335300</v>
       </c>
       <c r="J89" s="3">
+        <v>1248200</v>
+      </c>
+      <c r="K89" s="3">
         <v>101300</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-653500</v>
+        <v>-658700</v>
       </c>
       <c r="E91" s="3">
-        <v>-682000</v>
+        <v>-657100</v>
       </c>
       <c r="F91" s="3">
-        <v>-757400</v>
+        <v>-685800</v>
       </c>
       <c r="G91" s="3">
-        <v>-686800</v>
+        <v>-761500</v>
       </c>
       <c r="H91" s="3">
-        <v>-659900</v>
+        <v>-690600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1499300</v>
+        <v>-663500</v>
       </c>
       <c r="J91" s="3">
+        <v>-1507600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-662400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-732900</v>
+        <v>-417500</v>
       </c>
       <c r="E94" s="3">
-        <v>-964700</v>
+        <v>-737000</v>
       </c>
       <c r="F94" s="3">
-        <v>-941400</v>
+        <v>-970000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1296900</v>
+        <v>-946600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1111400</v>
+        <v>-1304000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1100600</v>
+        <v>-1117500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1106600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1016500</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-131100</v>
+        <v>-115300</v>
       </c>
       <c r="E96" s="3">
-        <v>-262100</v>
+        <v>-131800</v>
       </c>
       <c r="F96" s="3">
-        <v>-226100</v>
+        <v>-263600</v>
       </c>
       <c r="G96" s="3">
-        <v>-219500</v>
+        <v>-227300</v>
       </c>
       <c r="H96" s="3">
-        <v>-216300</v>
+        <v>-220800</v>
       </c>
       <c r="I96" s="3">
-        <v>-137600</v>
+        <v>-217500</v>
       </c>
       <c r="J96" s="3">
+        <v>-138400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-216400</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>57900</v>
+        <v>385600</v>
       </c>
       <c r="E100" s="3">
-        <v>-180100</v>
+        <v>58200</v>
       </c>
       <c r="F100" s="3">
-        <v>385700</v>
+        <v>-181100</v>
       </c>
       <c r="G100" s="3">
-        <v>270600</v>
+        <v>387900</v>
       </c>
       <c r="H100" s="3">
-        <v>-83500</v>
+        <v>272100</v>
       </c>
       <c r="I100" s="3">
-        <v>-559000</v>
+        <v>-84000</v>
       </c>
       <c r="J100" s="3">
+        <v>-562100</v>
+      </c>
+      <c r="K100" s="3">
         <v>793900</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-13400</v>
       </c>
-      <c r="E101" s="3">
-        <v>-25100</v>
-      </c>
       <c r="F101" s="3">
-        <v>-77400</v>
+        <v>-25300</v>
       </c>
       <c r="G101" s="3">
-        <v>78200</v>
+        <v>-77800</v>
       </c>
       <c r="H101" s="3">
-        <v>74800</v>
+        <v>78600</v>
       </c>
       <c r="I101" s="3">
-        <v>64200</v>
+        <v>75200</v>
       </c>
       <c r="J101" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-23500</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>308600</v>
+        <v>722900</v>
       </c>
       <c r="E102" s="3">
-        <v>-371700</v>
+        <v>310300</v>
       </c>
       <c r="F102" s="3">
-        <v>269600</v>
+        <v>-373800</v>
       </c>
       <c r="G102" s="3">
-        <v>-21000</v>
+        <v>271100</v>
       </c>
       <c r="H102" s="3">
-        <v>207900</v>
+        <v>-21100</v>
       </c>
       <c r="I102" s="3">
-        <v>-354000</v>
+        <v>209000</v>
       </c>
       <c r="J102" s="3">
+        <v>-356000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-144700</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
